--- a/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
+++ b/InputData/elec/BPHC/BAU Pumped Hydro Cap.xlsx
@@ -227,74 +227,6 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -765,7 +697,7 @@
           <t>Source:</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Energy Information Administration</t>
         </is>
@@ -827,7 +759,7 @@
     </row>
     <row r="11" ht="14.25" customHeight="1" s="30">
       <c r="A11" s="12" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>EIA form 860 3_1_Generator_Y2018.xlsx</t>
         </is>
@@ -891,7 +823,7 @@
     </row>
     <row r="13" ht="14.25" customHeight="1" s="30">
       <c r="A13" s="12" t="n"/>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>3_1_Generator_Y2018.xlsx "Operable"</t>
         </is>
